--- a/02-session/ThesaurusJuly.xlsx
+++ b/02-session/ThesaurusJuly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82d0fc462f1d9a6e/Documentos/July/jesusAriel/ADSO-2901817-July-Ramos/02-session/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0D6C6AF3-C926-4B52-AF3A-BD8A6D7056E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE86C2C8-E108-488C-89F8-5E60A9A16C98}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0D6C6AF3-C926-4B52-AF3A-BD8A6D7056E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5C5979-CFF4-49DD-A609-29D7CD5E4D3B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CBF535E4-71E5-47C2-9BF5-65E8EF8C5F03}"/>
   </bookViews>
@@ -968,9 +968,6 @@
     <t>EVOLUCIÓN DE LAS METODOLOGÍAS DE DESARROLLO DE LA INGENIERÍA DE SOFTWARE EN EL PROCESO LAINGENIERÍA DE SISTEMAS SOFTWARE</t>
   </si>
   <si>
-    <t>https://incyt.upse.edu.ec/ciencia/revistas/index.php/rctu/article/view/29/28</t>
-  </si>
-  <si>
     <t>Análisis de Desarrollo de Software Orientado a Feature–Línea deProducto de Software para aplicaciones de TVDi</t>
   </si>
   <si>
@@ -1069,6 +1066,9 @@
   </si>
   <si>
     <t>https://repositorio.uci.cu/handle/123456789/10717</t>
+  </si>
+  <si>
+    <t>https://repositorio.upse.edu.ec/handle/46000/7824</t>
   </si>
 </sst>
 </file>
@@ -5306,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99173B9F-FA6E-408A-BCB9-8FBF9815597F}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5355,13 +5355,13 @@
         <v>2018</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="75" t="s">
         <v>66</v>
@@ -5401,7 +5401,7 @@
         <v>2013</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>8</v>
@@ -5517,13 +5517,13 @@
         <v>2015</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G9" s="75" t="s">
         <v>66</v>
@@ -5534,19 +5534,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="31">
         <v>2013</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" s="75" t="s">
         <v>66</v>
@@ -5557,17 +5557,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G11" s="75" t="s">
         <v>66</v>
@@ -5578,19 +5578,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="31">
         <v>2021</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G12" s="77" t="s">
         <v>66</v>
@@ -5601,19 +5601,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" s="31">
         <v>2022</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>66</v>
@@ -5624,19 +5624,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" s="31">
         <v>2020</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G14" s="75" t="s">
         <v>66</v>
@@ -5647,19 +5647,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="31">
         <v>2024</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G15" s="75" t="s">
         <v>66</v>
@@ -5670,19 +5670,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="31">
         <v>2023</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G16" s="77" t="s">
         <v>66</v>
@@ -5693,19 +5693,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="31">
         <v>2014</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G17" s="77" t="s">
         <v>66</v>
@@ -5716,19 +5716,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="31">
         <v>2023</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" s="77" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G18" s="77" t="s">
         <v>66</v>
@@ -5739,19 +5739,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="50">
         <v>2021</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" s="79" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" s="79" t="s">
         <v>66</v>
@@ -5762,19 +5762,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C20" s="31">
         <v>2021</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="77" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G20" s="79" t="s">
         <v>66</v>
@@ -5785,19 +5785,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" s="31">
         <v>2020</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" s="75" t="s">
         <v>66</v>
